--- a/chap_6/data_lsm.xlsx
+++ b/chap_6/data_lsm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narizuka/work/document/lecture/rissho/info_process/book/chap_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76BC1C5-4D4B-FE45-A9FD-DE1AC4506570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59519376-1190-9744-8399-2BA8B118E2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="29300" windowWidth="27320" windowHeight="19980" xr2:uid="{A44BA765-2644-504B-A5F8-2D26143B7ED0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A44BA765-2644-504B-A5F8-2D26143B7ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="data_linear" sheetId="1" r:id="rId1"/>
@@ -741,8 +741,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.1701662292213471E-3"/>
-                  <c:y val="-0.14852836103820355"/>
+                  <c:x val="-2.5947944006999124E-2"/>
+                  <c:y val="-0.14389873140857393"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1396,7 +1396,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B35-9240-A5E3-DE2F3F5A094C}"/>
+              <c16:uniqueId val="{00000000-AE5C-9847-A530-A1D678145E7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1408,11 +1408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1282539712"/>
-        <c:axId val="2002143999"/>
+        <c:axId val="1292964368"/>
+        <c:axId val="1292948176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1282539712"/>
+        <c:axId val="1292964368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,12 +1455,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2002143999"/>
+        <c:crossAx val="1292948176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2002143999"/>
+        <c:axId val="1292948176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1503,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1282539712"/>
+        <c:crossAx val="1292964368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2119,23 +2119,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276679</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166007</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>86179</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>115207</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE0B433-5E63-2588-AC9F-DD280AD05FF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A2A440-229E-B7BC-F059-37A8609AF507}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B0583C-C2B7-034A-BDA1-68A3B779166D}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
